--- a/src/main/webapp/res/upload1.xlsx
+++ b/src/main/webapp/res/upload1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Seungjin\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PJ\sts\funds2\src\main\webapp\res\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5129FB29-AB12-41BD-B1EA-4E8B79DF4ECA}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE94F85A-F351-4110-8321-329A05E7B84A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="19605" xr2:uid="{C78A55D6-FA20-46F7-B9DA-20EC24C7CF19}"/>
   </bookViews>
@@ -86,8 +86,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -407,19 +410,19 @@
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.75" customWidth="1"/>
+    <col min="1" max="1" width="12.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="25.25" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
     <col min="4" max="4" width="16.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -435,5 +438,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>